--- a/biology/Zoologie/Cypa_decolor/Cypa_decolor.xlsx
+++ b/biology/Zoologie/Cypa_decolor/Cypa_decolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cypa decolor est une espèce  de lépidoptères appartenant à la famille des Sphingidae, à la sous-famille des Smerinthinae, à la tribu des Smerinthini et au genre Cypa.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Répartition
-L'espèce est connue, au nord - est de l'Inde, au Népal, en Birmanie, dans le sud-ouest de la Chine, en Thaïlande, au Vietnam, en Malaisie(Sarawak) et en Indonésie (Sumatra, Bornéo, Kalimantan, Papouasie-Nouvelle-Guinée)[1].</t>
+L'espèce est connue, au nord - est de l'Inde, au Népal, en Birmanie, dans le sud-ouest de la Chine, en Thaïlande, au Vietnam, en Malaisie(Sarawak) et en Indonésie (Sumatra, Bornéo, Kalimantan, Papouasie-Nouvelle-Guinée).</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure de l'imago varie de 50 à 82 mm. Les mâles ont tendance à être plus variés que les femelles. L'espèce est similaire à Cypa terranea mais la coloration brun verdâtre sur la face dorsale est moins marquée.
 			Avers du mâle (coll.MHNT)
@@ -577,7 +593,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles se nourrissent sur les espèces des genres Quercus et Castanopsis.
 </t>
@@ -608,16 +626,86 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par l'entomologiste britannique Francis Walker en 1856 sous me nom initial de Smerinthus decolor[2].
-Synonymie
-Smerinthus decolor Walker, 1856 Protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce a été décrite par l'entomologiste britannique Francis Walker en 1856 sous me nom initial de Smerinthus decolor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cypa_decolor</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypa_decolor</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Smerinthus decolor Walker, 1856 Protonyme
 Cypa incongruens Butler, 1881
 Smerinthulus chinensis Rothschild &amp; Jordan, 1903
-Cypa decolor manilae Clark, 1930
-Liste des sous-espèces
-Cypa decolor decolor  (Inde du nord-est, Népal, Birmanie, Chine du sud-ouest, Thaïlande, Vietnam, Malaisie (Sarawak) et Indonésie (Sumatra, Bornéo, Kalimantan))
+Cypa decolor manilae Clark, 1930</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cypa_decolor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypa_decolor</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cypa decolor decolor  (Inde du nord-est, Népal, Birmanie, Chine du sud-ouest, Thaïlande, Vietnam, Malaisie (Sarawak) et Indonésie (Sumatra, Bornéo, Kalimantan))
 Cypa decolor euroa Rothschild et Jordanie, 1903 (Papouasie-Nouvelle-Guinée)</t>
         </is>
       </c>
